--- a/Output/simulation_compare.xlsx
+++ b/Output/simulation_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reshefm\Documents\GitHub\review_market-master\review_market\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4307061-B98D-427F-96AE-6DE0DF33EC5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5098DDEE-0FB5-40C6-A7BF-ABCA7E6B5962}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
   <si>
     <t>average bids after convergence</t>
   </si>
@@ -97,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,12 +231,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -3508,6 +3502,4862 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Excess papers (1 bid level)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.80291426071741034"/>
+          <c:h val="0.65262116071455578"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$6:$H$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7FD-4B6F-A292-EE69BFA40BEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$W$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sincere</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$6:$K$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D7FD-4B6F-A292-EE69BFA40BEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AC$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>combined alpha=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$7:$Q$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D7FD-4B6F-A292-EE69BFA40BEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D7FD-4B6F-A292-EE69BFA40BEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Lazy 0.6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$6:$N$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D7FD-4B6F-A292-EE69BFA40BEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1298588272"/>
+        <c:axId val="1139770240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1298588272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>total positive</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> bids</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139770240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1139770240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>excess papers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1298588272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71058218266194983"/>
+          <c:y val="0.12324536508693018"/>
+          <c:w val="0.20188824223059074"/>
+          <c:h val="0.37942923266114598"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>social cost (1 bid level)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.80291426071741034"/>
+          <c:h val="0.65262116071455578"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$6:$I$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="2">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-883D-48E7-88DC-447412D3698D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$W$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sincere</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$6:$L$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="10">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-883D-48E7-88DC-447412D3698D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AC$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>combined alpha=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$7:$R$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="4">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-883D-48E7-88DC-447412D3698D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-883D-48E7-88DC-447412D3698D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Lazy 0.6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$O$6:$O$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="8">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-883D-48E7-88DC-447412D3698D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1298588272"/>
+        <c:axId val="1139770240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1298588272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>total positive</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> bids</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139770240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1139770240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>social cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1298588272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71058218266194983"/>
+          <c:y val="0.12324536508693018"/>
+          <c:w val="0.20188824223059074"/>
+          <c:h val="0.37942923266114598"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>bids (1 bid level)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.80291426071741034"/>
+          <c:h val="0.65262116071455578"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$7:$G$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$B$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86AD-4633-83CA-CE8005DD3087}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$W$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sincere</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$7:$J$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1630</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-86AD-4633-83CA-CE8005DD3087}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AC$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>combined alpha=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$7:$P$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-86AD-4633-83CA-CE8005DD3087}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Lazy 0.6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$6:$M$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1630</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-86AD-4633-83CA-CE8005DD3087}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1298588272"/>
+        <c:axId val="1139770240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1298588272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>bids requirement</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (per bidder)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139770240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1139770240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>total bids</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1298588272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79512324546388236"/>
+          <c:y val="5.5791751396785515E-2"/>
+          <c:w val="0.20188824223059074"/>
+          <c:h val="0.37942923266114598"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3549,6 +8399,126 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4620,6 +9590,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4689,16 +11207,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4727,16 +11245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395286</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4758,6 +11276,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A452DB-E962-46BC-97AD-61841C7A9C84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C6486C-6E4B-496D-AAF3-F568A9483C5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E217966-28F4-4E37-9134-4BC69CD98A5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5105,13 +11737,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E7F199-054A-4693-90F1-53F615927617}">
   <dimension ref="A1:EW159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:153" x14ac:dyDescent="0.45">
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="G1" s="1" t="s">
@@ -5141,7 +11776,7 @@
       <c r="AD1" s="8"/>
       <c r="AE1" s="9"/>
     </row>
-    <row r="2" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:153" x14ac:dyDescent="0.45">
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="G2" s="1" t="s">
@@ -5175,7 +11810,7 @@
       <c r="AD2" s="8"/>
       <c r="AE2" s="9"/>
     </row>
-    <row r="3" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:153" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -5231,7 +11866,7 @@
       <c r="AD3" s="8"/>
       <c r="AE3" s="9"/>
     </row>
-    <row r="4" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:153" x14ac:dyDescent="0.45">
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="G4" s="1"/>
@@ -5257,7 +11892,7 @@
       <c r="AD4" s="8"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:153" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5464,7 +12099,7 @@
       <c r="EV5" s="5"/>
       <c r="EW5" s="5"/>
     </row>
-    <row r="6" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:153" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -5627,7 +12262,7 @@
       <c r="EV6" s="2"/>
       <c r="EW6" s="2"/>
     </row>
-    <row r="7" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:153" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>67</v>
@@ -5796,7 +12431,7 @@
       <c r="EV7" s="2"/>
       <c r="EW7" s="2"/>
     </row>
-    <row r="8" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:153" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>93</v>
       </c>
@@ -5831,7 +12466,7 @@
       <c r="AD8" s="8"/>
       <c r="AE8" s="9"/>
     </row>
-    <row r="9" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:153" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>99</v>
       </c>
@@ -5866,7 +12501,7 @@
       <c r="AD9" s="8"/>
       <c r="AE9" s="9"/>
     </row>
-    <row r="10" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:153" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>110</v>
       </c>
@@ -5895,7 +12530,7 @@
       <c r="AD10" s="8"/>
       <c r="AE10" s="9"/>
     </row>
-    <row r="11" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:153" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>116</v>
       </c>
@@ -5931,7 +12566,7 @@
       <c r="AD11" s="8"/>
       <c r="AE11" s="9"/>
     </row>
-    <row r="12" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:153" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>124</v>
       </c>
@@ -5972,7 +12607,7 @@
       <c r="AD12" s="8"/>
       <c r="AE12" s="9"/>
     </row>
-    <row r="13" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:153" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>134</v>
       </c>
@@ -6007,7 +12642,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:153" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>144</v>
       </c>
@@ -6044,7 +12679,7 @@
       <c r="AD14" s="8"/>
       <c r="AE14" s="9"/>
     </row>
-    <row r="15" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:153" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>155</v>
       </c>
@@ -6093,7 +12728,7 @@
       <c r="AD15" s="8"/>
       <c r="AE15" s="9"/>
     </row>
-    <row r="16" spans="1:153" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:153" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>165</v>
       </c>
@@ -6116,9 +12751,6 @@
         <v>363</v>
       </c>
       <c r="O16" s="6"/>
-      <c r="P16" t="s">
-        <v>5</v>
-      </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="10"/>
@@ -6135,7 +12767,7 @@
       <c r="AD16" s="8"/>
       <c r="AE16" s="9"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>170</v>
       </c>
@@ -6147,9 +12779,6 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
       <c r="L17" s="6"/>
-      <c r="M17" t="s">
-        <v>5</v>
-      </c>
       <c r="O17" s="6"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -6167,7 +12796,7 @@
       <c r="AD17" s="8"/>
       <c r="AE17" s="9"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>177</v>
       </c>
@@ -6198,7 +12827,7 @@
       <c r="AD18" s="8"/>
       <c r="AE18" s="9"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>180</v>
       </c>
@@ -6234,7 +12863,7 @@
       <c r="AD19" s="8"/>
       <c r="AE19" s="9"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>182</v>
       </c>
@@ -6265,7 +12894,7 @@
       <c r="AD20" s="8"/>
       <c r="AE20" s="9"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>185</v>
       </c>
@@ -6314,7 +12943,7 @@
       <c r="AD21" s="8"/>
       <c r="AE21" s="9"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>189</v>
       </c>
@@ -6349,7 +12978,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>198</v>
       </c>
@@ -6386,7 +13015,7 @@
       <c r="AD23" s="8"/>
       <c r="AE23" s="9"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>204</v>
       </c>
@@ -6421,7 +13050,7 @@
       <c r="AD24" s="8"/>
       <c r="AE24" s="9"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>213</v>
       </c>
@@ -6456,7 +13085,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>217</v>
       </c>
@@ -6508,7 +13137,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>228</v>
       </c>
@@ -6539,7 +13168,7 @@
       <c r="AD27" s="8"/>
       <c r="AE27" s="9"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>231</v>
       </c>
@@ -6571,7 +13200,7 @@
       <c r="AD28" s="8"/>
       <c r="AE28" s="9"/>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>233</v>
       </c>
@@ -6613,7 +13242,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>237</v>
       </c>
@@ -6642,7 +13271,7 @@
       <c r="AD30" s="8"/>
       <c r="AE30" s="9"/>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>242</v>
       </c>
@@ -6671,7 +13300,7 @@
       <c r="AD31" s="8"/>
       <c r="AE31" s="9"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>248</v>
       </c>
@@ -6713,7 +13342,7 @@
       <c r="AD32" s="8"/>
       <c r="AE32" s="9"/>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>251</v>
       </c>
@@ -6755,7 +13384,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>255</v>
       </c>
@@ -6804,7 +13433,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>262</v>
       </c>
@@ -6834,7 +13463,7 @@
       <c r="AD35" s="8"/>
       <c r="AE35" s="9"/>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>266</v>
       </c>
@@ -6870,7 +13499,7 @@
       <c r="AD36" s="8"/>
       <c r="AE36" s="9"/>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>270</v>
       </c>
@@ -6907,7 +13536,7 @@
       <c r="AD37" s="8"/>
       <c r="AE37" s="9"/>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>279</v>
       </c>
@@ -6931,10 +13560,15 @@
       <c r="L38" s="6">
         <v>303</v>
       </c>
-      <c r="M38" t="s">
-        <v>5</v>
-      </c>
-      <c r="O38" s="6"/>
+      <c r="M38">
+        <v>8</v>
+      </c>
+      <c r="N38" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="O38" s="6">
+        <v>346</v>
+      </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="10"/>
@@ -6953,7 +13587,7 @@
       <c r="AD38" s="8"/>
       <c r="AE38" s="9"/>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>282</v>
       </c>
@@ -6988,7 +13622,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>289</v>
       </c>
@@ -7023,7 +13657,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>296</v>
       </c>
@@ -7032,15 +13666,9 @@
       <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41">
         <v>5.5</v>
@@ -7071,7 +13699,7 @@
       <c r="AD41" s="8"/>
       <c r="AE41" s="9"/>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>307</v>
       </c>
@@ -7102,7 +13730,7 @@
       <c r="AD42" s="8"/>
       <c r="AE42" s="9"/>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>311</v>
       </c>
@@ -7143,7 +13771,7 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="9"/>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>317</v>
       </c>
@@ -7178,7 +13806,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>320</v>
       </c>
@@ -7217,7 +13845,7 @@
       <c r="AD45" s="8"/>
       <c r="AE45" s="9"/>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>335</v>
       </c>
@@ -7265,7 +13893,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>344</v>
       </c>
@@ -7294,7 +13922,7 @@
       <c r="AD47" s="8"/>
       <c r="AE47" s="9"/>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>348</v>
       </c>
@@ -7336,7 +13964,7 @@
       <c r="AD48" s="8"/>
       <c r="AE48" s="9"/>
     </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>356</v>
       </c>
@@ -7371,7 +13999,7 @@
       <c r="AD49" s="8"/>
       <c r="AE49" s="9"/>
     </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>372</v>
       </c>
@@ -7412,7 +14040,7 @@
       <c r="AD50" s="8"/>
       <c r="AE50" s="9"/>
     </row>
-    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>377</v>
       </c>
@@ -7443,7 +14071,7 @@
       <c r="AD51" s="8"/>
       <c r="AE51" s="9"/>
     </row>
-    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>381</v>
       </c>
@@ -7478,7 +14106,7 @@
       <c r="AD52" s="8"/>
       <c r="AE52" s="9"/>
     </row>
-    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>387</v>
       </c>
@@ -7507,7 +14135,7 @@
       <c r="AD53" s="8"/>
       <c r="AE53" s="9"/>
     </row>
-    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>400</v>
       </c>
@@ -7548,7 +14176,7 @@
       <c r="AD54" s="8"/>
       <c r="AE54" s="9"/>
     </row>
-    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>407</v>
       </c>
@@ -7583,7 +14211,7 @@
       <c r="AD55" s="8"/>
       <c r="AE55" s="9"/>
     </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>425</v>
       </c>
@@ -7625,7 +14253,7 @@
       <c r="AD56" s="8"/>
       <c r="AE56" s="9"/>
     </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>434</v>
       </c>
@@ -7660,7 +14288,7 @@
       <c r="AD57" s="8"/>
       <c r="AE57" s="9"/>
     </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>441</v>
       </c>
@@ -7689,7 +14317,7 @@
       <c r="AD58" s="8"/>
       <c r="AE58" s="9"/>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>447</v>
       </c>
@@ -7724,7 +14352,7 @@
       <c r="AD59" s="8"/>
       <c r="AE59" s="9"/>
     </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>465</v>
       </c>
@@ -7771,7 +14399,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>486</v>
       </c>
@@ -7806,7 +14434,7 @@
       <c r="AD61" s="8"/>
       <c r="AE61" s="9"/>
     </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>496</v>
       </c>
@@ -7847,7 +14475,7 @@
       <c r="AD62" s="8"/>
       <c r="AE62" s="9"/>
     </row>
-    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>504</v>
       </c>
@@ -7858,9 +14486,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="1"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="L63" s="6"/>
       <c r="O63" s="6"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
@@ -7884,7 +14510,7 @@
       <c r="AD63" s="8"/>
       <c r="AE63" s="9"/>
     </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>532</v>
       </c>
@@ -7913,7 +14539,7 @@
       <c r="AD64" s="8"/>
       <c r="AE64" s="9"/>
     </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>536</v>
       </c>
@@ -7955,7 +14581,7 @@
       <c r="AD65" s="8"/>
       <c r="AE65" s="9"/>
     </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>558</v>
       </c>
@@ -7990,7 +14616,7 @@
       <c r="AD66" s="8"/>
       <c r="AE66" s="9"/>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>564</v>
       </c>
@@ -8025,7 +14651,7 @@
       <c r="AD67" s="8"/>
       <c r="AE67" s="9"/>
     </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>589</v>
       </c>
@@ -8054,7 +14680,7 @@
       <c r="AD68" s="8"/>
       <c r="AE68" s="9"/>
     </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>614</v>
       </c>
@@ -8083,7 +14709,7 @@
       <c r="AD69" s="8"/>
       <c r="AE69" s="9"/>
     </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>620</v>
       </c>
@@ -8125,7 +14751,7 @@
       <c r="AD70" s="8"/>
       <c r="AE70" s="9"/>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>629</v>
       </c>
@@ -8155,7 +14781,7 @@
       <c r="AD71" s="8"/>
       <c r="AE71" s="9"/>
     </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>716</v>
       </c>
@@ -8191,7 +14817,7 @@
       <c r="AD72" s="8"/>
       <c r="AE72" s="9"/>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.45">
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="G73" s="1"/>
@@ -8218,7 +14844,7 @@
       <c r="AD73" s="8"/>
       <c r="AE73" s="9"/>
     </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:31" x14ac:dyDescent="0.45">
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="G74" s="1"/>
@@ -8245,7 +14871,7 @@
       <c r="AD74" s="8"/>
       <c r="AE74" s="9"/>
     </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:31" x14ac:dyDescent="0.45">
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="G75" s="1"/>
@@ -8272,7 +14898,7 @@
       <c r="AD75" s="8"/>
       <c r="AE75" s="9"/>
     </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>1630</v>
       </c>
@@ -8304,7 +14930,7 @@
       <c r="AD76" s="8"/>
       <c r="AE76" s="9"/>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.45">
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="G77" s="1"/>
@@ -8330,7 +14956,7 @@
       <c r="AD77" s="8"/>
       <c r="AE77" s="9"/>
     </row>
-    <row r="78" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:31" x14ac:dyDescent="0.45">
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="G78" s="1"/>
@@ -8356,7 +14982,7 @@
       <c r="AD78" s="8"/>
       <c r="AE78" s="9"/>
     </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:31" x14ac:dyDescent="0.45">
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="G79" s="1"/>
@@ -8382,7 +15008,7 @@
       <c r="AD79" s="8"/>
       <c r="AE79" s="9"/>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.45">
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="G80" s="1"/>
@@ -8408,7 +15034,7 @@
       <c r="AD80" s="8"/>
       <c r="AE80" s="9"/>
     </row>
-    <row r="81" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="G81" s="1"/>
@@ -8434,7 +15060,7 @@
       <c r="AD81" s="8"/>
       <c r="AE81" s="9"/>
     </row>
-    <row r="82" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="G82" s="1"/>
@@ -8460,7 +15086,7 @@
       <c r="AD82" s="8"/>
       <c r="AE82" s="9"/>
     </row>
-    <row r="83" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="G83" s="1"/>
@@ -8486,7 +15112,7 @@
       <c r="AD83" s="8"/>
       <c r="AE83" s="9"/>
     </row>
-    <row r="84" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="G84" s="1"/>
@@ -8512,7 +15138,7 @@
       <c r="AD84" s="8"/>
       <c r="AE84" s="9"/>
     </row>
-    <row r="85" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="G85" s="1"/>
@@ -8538,7 +15164,7 @@
       <c r="AD85" s="8"/>
       <c r="AE85" s="9"/>
     </row>
-    <row r="86" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="G86" s="1"/>
@@ -8564,7 +15190,7 @@
       <c r="AD86" s="8"/>
       <c r="AE86" s="9"/>
     </row>
-    <row r="87" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="G87" s="1"/>
@@ -8590,7 +15216,7 @@
       <c r="AD87" s="8"/>
       <c r="AE87" s="9"/>
     </row>
-    <row r="88" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="G88" s="1"/>
@@ -8616,7 +15242,7 @@
       <c r="AD88" s="8"/>
       <c r="AE88" s="9"/>
     </row>
-    <row r="89" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="G89" s="1"/>
@@ -8642,7 +15268,7 @@
       <c r="AD89" s="8"/>
       <c r="AE89" s="9"/>
     </row>
-    <row r="90" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="G90" s="1"/>
@@ -8668,7 +15294,7 @@
       <c r="AD90" s="8"/>
       <c r="AE90" s="9"/>
     </row>
-    <row r="91" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="G91" s="1"/>
@@ -8694,7 +15320,7 @@
       <c r="AD91" s="8"/>
       <c r="AE91" s="9"/>
     </row>
-    <row r="92" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="G92" s="1"/>
@@ -8720,7 +15346,7 @@
       <c r="AD92" s="8"/>
       <c r="AE92" s="9"/>
     </row>
-    <row r="93" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="G93" s="1"/>
@@ -8746,7 +15372,7 @@
       <c r="AD93" s="8"/>
       <c r="AE93" s="9"/>
     </row>
-    <row r="94" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="G94" s="1"/>
@@ -8772,7 +15398,7 @@
       <c r="AD94" s="8"/>
       <c r="AE94" s="9"/>
     </row>
-    <row r="95" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="G95" s="1"/>
@@ -8798,7 +15424,7 @@
       <c r="AD95" s="8"/>
       <c r="AE95" s="9"/>
     </row>
-    <row r="96" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="G96" s="1"/>
@@ -8824,7 +15450,7 @@
       <c r="AD96" s="8"/>
       <c r="AE96" s="9"/>
     </row>
-    <row r="97" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="G97" s="1"/>
@@ -8850,7 +15476,7 @@
       <c r="AD97" s="8"/>
       <c r="AE97" s="9"/>
     </row>
-    <row r="98" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="G98" s="1"/>
@@ -8876,7 +15502,7 @@
       <c r="AD98" s="8"/>
       <c r="AE98" s="9"/>
     </row>
-    <row r="99" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="G99" s="1"/>
@@ -8902,7 +15528,7 @@
       <c r="AD99" s="8"/>
       <c r="AE99" s="9"/>
     </row>
-    <row r="100" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="G100" s="1"/>
@@ -8928,7 +15554,7 @@
       <c r="AD100" s="8"/>
       <c r="AE100" s="9"/>
     </row>
-    <row r="101" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="G101" s="1"/>
@@ -8954,7 +15580,7 @@
       <c r="AD101" s="8"/>
       <c r="AE101" s="9"/>
     </row>
-    <row r="102" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="G102" s="1"/>
@@ -8980,7 +15606,7 @@
       <c r="AD102" s="8"/>
       <c r="AE102" s="9"/>
     </row>
-    <row r="103" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="G103" s="1"/>
@@ -9006,7 +15632,7 @@
       <c r="AD103" s="8"/>
       <c r="AE103" s="9"/>
     </row>
-    <row r="104" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="G104" s="1"/>
@@ -9032,7 +15658,7 @@
       <c r="AD104" s="8"/>
       <c r="AE104" s="9"/>
     </row>
-    <row r="105" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="G105" s="1"/>
@@ -9058,7 +15684,7 @@
       <c r="AD105" s="8"/>
       <c r="AE105" s="9"/>
     </row>
-    <row r="106" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="G106" s="1"/>
@@ -9084,7 +15710,7 @@
       <c r="AD106" s="8"/>
       <c r="AE106" s="9"/>
     </row>
-    <row r="107" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="G107" s="1"/>
@@ -9110,7 +15736,7 @@
       <c r="AD107" s="8"/>
       <c r="AE107" s="9"/>
     </row>
-    <row r="108" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="G108" s="1"/>
@@ -9136,7 +15762,7 @@
       <c r="AD108" s="8"/>
       <c r="AE108" s="9"/>
     </row>
-    <row r="109" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="G109" s="1"/>
@@ -9162,7 +15788,7 @@
       <c r="AD109" s="8"/>
       <c r="AE109" s="9"/>
     </row>
-    <row r="110" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="G110" s="1"/>
@@ -9188,7 +15814,7 @@
       <c r="AD110" s="8"/>
       <c r="AE110" s="9"/>
     </row>
-    <row r="111" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D111" s="14"/>
       <c r="E111" s="14"/>
       <c r="G111" s="1"/>
@@ -9214,7 +15840,7 @@
       <c r="AD111" s="8"/>
       <c r="AE111" s="9"/>
     </row>
-    <row r="112" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
       <c r="G112" s="1"/>
@@ -9240,7 +15866,7 @@
       <c r="AD112" s="8"/>
       <c r="AE112" s="9"/>
     </row>
-    <row r="113" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D113" s="14"/>
       <c r="E113" s="14"/>
       <c r="G113" s="1"/>
@@ -9266,7 +15892,7 @@
       <c r="AD113" s="8"/>
       <c r="AE113" s="9"/>
     </row>
-    <row r="114" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
       <c r="G114" s="1"/>
@@ -9292,7 +15918,7 @@
       <c r="AD114" s="8"/>
       <c r="AE114" s="9"/>
     </row>
-    <row r="115" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
       <c r="G115" s="1"/>
@@ -9318,7 +15944,7 @@
       <c r="AD115" s="8"/>
       <c r="AE115" s="9"/>
     </row>
-    <row r="116" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
       <c r="G116" s="1"/>
@@ -9344,7 +15970,7 @@
       <c r="AD116" s="8"/>
       <c r="AE116" s="9"/>
     </row>
-    <row r="117" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
       <c r="G117" s="1"/>
@@ -9370,7 +15996,7 @@
       <c r="AD117" s="8"/>
       <c r="AE117" s="9"/>
     </row>
-    <row r="118" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
       <c r="G118" s="1"/>
@@ -9396,7 +16022,7 @@
       <c r="AD118" s="8"/>
       <c r="AE118" s="9"/>
     </row>
-    <row r="119" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
       <c r="G119" s="1"/>
@@ -9422,7 +16048,7 @@
       <c r="AD119" s="8"/>
       <c r="AE119" s="9"/>
     </row>
-    <row r="120" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
       <c r="G120" s="1"/>
@@ -9448,7 +16074,7 @@
       <c r="AD120" s="8"/>
       <c r="AE120" s="9"/>
     </row>
-    <row r="121" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D121" s="14"/>
       <c r="E121" s="14"/>
       <c r="G121" s="1"/>
@@ -9474,7 +16100,7 @@
       <c r="AD121" s="8"/>
       <c r="AE121" s="9"/>
     </row>
-    <row r="122" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
       <c r="G122" s="1"/>
@@ -9500,7 +16126,7 @@
       <c r="AD122" s="8"/>
       <c r="AE122" s="9"/>
     </row>
-    <row r="123" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
       <c r="G123" s="1"/>
@@ -9526,7 +16152,7 @@
       <c r="AD123" s="8"/>
       <c r="AE123" s="9"/>
     </row>
-    <row r="124" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D124" s="14"/>
       <c r="E124" s="14"/>
       <c r="G124" s="1"/>
@@ -9552,7 +16178,7 @@
       <c r="AD124" s="8"/>
       <c r="AE124" s="9"/>
     </row>
-    <row r="125" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D125" s="14"/>
       <c r="E125" s="14"/>
       <c r="G125" s="1"/>
@@ -9578,7 +16204,7 @@
       <c r="AD125" s="8"/>
       <c r="AE125" s="9"/>
     </row>
-    <row r="126" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D126" s="14"/>
       <c r="E126" s="14"/>
       <c r="G126" s="1"/>
@@ -9604,7 +16230,7 @@
       <c r="AD126" s="8"/>
       <c r="AE126" s="9"/>
     </row>
-    <row r="127" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D127" s="14"/>
       <c r="E127" s="14"/>
       <c r="G127" s="1"/>
@@ -9630,7 +16256,7 @@
       <c r="AD127" s="8"/>
       <c r="AE127" s="9"/>
     </row>
-    <row r="128" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D128" s="14"/>
       <c r="E128" s="14"/>
       <c r="G128" s="1"/>
@@ -9656,7 +16282,7 @@
       <c r="AD128" s="8"/>
       <c r="AE128" s="9"/>
     </row>
-    <row r="129" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
       <c r="G129" s="1"/>
@@ -9682,7 +16308,7 @@
       <c r="AD129" s="8"/>
       <c r="AE129" s="9"/>
     </row>
-    <row r="130" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
       <c r="G130" s="1"/>
@@ -9708,7 +16334,7 @@
       <c r="AD130" s="8"/>
       <c r="AE130" s="9"/>
     </row>
-    <row r="131" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D131" s="14"/>
       <c r="E131" s="14"/>
       <c r="G131" s="1"/>
@@ -9734,7 +16360,7 @@
       <c r="AD131" s="8"/>
       <c r="AE131" s="9"/>
     </row>
-    <row r="132" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D132" s="14"/>
       <c r="E132" s="14"/>
       <c r="G132" s="1"/>
@@ -9760,7 +16386,7 @@
       <c r="AD132" s="8"/>
       <c r="AE132" s="9"/>
     </row>
-    <row r="133" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D133" s="14"/>
       <c r="E133" s="14"/>
       <c r="G133" s="1"/>
@@ -9786,7 +16412,7 @@
       <c r="AD133" s="8"/>
       <c r="AE133" s="9"/>
     </row>
-    <row r="134" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D134" s="14"/>
       <c r="E134" s="14"/>
       <c r="G134" s="1"/>
@@ -9812,7 +16438,7 @@
       <c r="AD134" s="8"/>
       <c r="AE134" s="9"/>
     </row>
-    <row r="135" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D135" s="14"/>
       <c r="E135" s="14"/>
       <c r="G135" s="1"/>
@@ -9838,7 +16464,7 @@
       <c r="AD135" s="8"/>
       <c r="AE135" s="9"/>
     </row>
-    <row r="136" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D136" s="14"/>
       <c r="E136" s="14"/>
       <c r="G136" s="1"/>
@@ -9864,7 +16490,7 @@
       <c r="AD136" s="8"/>
       <c r="AE136" s="9"/>
     </row>
-    <row r="137" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D137" s="14"/>
       <c r="E137" s="14"/>
       <c r="G137" s="1"/>
@@ -9890,7 +16516,7 @@
       <c r="AD137" s="8"/>
       <c r="AE137" s="9"/>
     </row>
-    <row r="138" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D138" s="14"/>
       <c r="E138" s="14"/>
       <c r="G138" s="1"/>
@@ -9916,7 +16542,7 @@
       <c r="AD138" s="8"/>
       <c r="AE138" s="9"/>
     </row>
-    <row r="139" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D139" s="14"/>
       <c r="E139" s="14"/>
       <c r="G139" s="1"/>
@@ -9942,7 +16568,7 @@
       <c r="AD139" s="8"/>
       <c r="AE139" s="9"/>
     </row>
-    <row r="140" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D140" s="14"/>
       <c r="E140" s="14"/>
       <c r="G140" s="1"/>
@@ -9968,7 +16594,7 @@
       <c r="AD140" s="8"/>
       <c r="AE140" s="9"/>
     </row>
-    <row r="141" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D141" s="14"/>
       <c r="E141" s="14"/>
       <c r="G141" s="1"/>
@@ -9994,7 +16620,7 @@
       <c r="AD141" s="8"/>
       <c r="AE141" s="9"/>
     </row>
-    <row r="142" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D142" s="14"/>
       <c r="E142" s="14"/>
       <c r="G142" s="1"/>
@@ -10020,7 +16646,7 @@
       <c r="AD142" s="8"/>
       <c r="AE142" s="9"/>
     </row>
-    <row r="143" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D143" s="14"/>
       <c r="E143" s="14"/>
       <c r="G143" s="1"/>
@@ -10046,7 +16672,7 @@
       <c r="AD143" s="8"/>
       <c r="AE143" s="9"/>
     </row>
-    <row r="144" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D144" s="14"/>
       <c r="E144" s="14"/>
       <c r="G144" s="1"/>
@@ -10072,7 +16698,7 @@
       <c r="AD144" s="8"/>
       <c r="AE144" s="9"/>
     </row>
-    <row r="145" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D145" s="14"/>
       <c r="E145" s="14"/>
       <c r="G145" s="1"/>
@@ -10098,7 +16724,7 @@
       <c r="AD145" s="8"/>
       <c r="AE145" s="9"/>
     </row>
-    <row r="146" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D146" s="14"/>
       <c r="E146" s="14"/>
       <c r="G146" s="1"/>
@@ -10124,7 +16750,7 @@
       <c r="AD146" s="8"/>
       <c r="AE146" s="9"/>
     </row>
-    <row r="147" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D147" s="14"/>
       <c r="E147" s="14"/>
       <c r="G147" s="1"/>
@@ -10150,7 +16776,7 @@
       <c r="AD147" s="8"/>
       <c r="AE147" s="9"/>
     </row>
-    <row r="148" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D148" s="14"/>
       <c r="E148" s="14"/>
       <c r="G148" s="1"/>
@@ -10176,7 +16802,7 @@
       <c r="AD148" s="8"/>
       <c r="AE148" s="9"/>
     </row>
-    <row r="149" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D149" s="14"/>
       <c r="E149" s="14"/>
       <c r="G149" s="1"/>
@@ -10202,7 +16828,7 @@
       <c r="AD149" s="8"/>
       <c r="AE149" s="9"/>
     </row>
-    <row r="150" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D150" s="14"/>
       <c r="E150" s="14"/>
       <c r="G150" s="1"/>
@@ -10228,7 +16854,7 @@
       <c r="AD150" s="8"/>
       <c r="AE150" s="9"/>
     </row>
-    <row r="151" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D151" s="14"/>
       <c r="E151" s="14"/>
       <c r="G151" s="1"/>
@@ -10254,7 +16880,7 @@
       <c r="AD151" s="8"/>
       <c r="AE151" s="9"/>
     </row>
-    <row r="152" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D152" s="14"/>
       <c r="E152" s="14"/>
       <c r="G152" s="1"/>
@@ -10280,7 +16906,7 @@
       <c r="AD152" s="8"/>
       <c r="AE152" s="9"/>
     </row>
-    <row r="153" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D153" s="14"/>
       <c r="E153" s="14"/>
       <c r="G153" s="1"/>
@@ -10306,7 +16932,7 @@
       <c r="AD153" s="8"/>
       <c r="AE153" s="9"/>
     </row>
-    <row r="154" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D154" s="14"/>
       <c r="E154" s="14"/>
       <c r="G154" s="1"/>
@@ -10332,7 +16958,7 @@
       <c r="AD154" s="8"/>
       <c r="AE154" s="9"/>
     </row>
-    <row r="155" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D155" s="14"/>
       <c r="E155" s="14"/>
       <c r="G155" s="1"/>
@@ -10358,7 +16984,7 @@
       <c r="AD155" s="8"/>
       <c r="AE155" s="9"/>
     </row>
-    <row r="156" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D156" s="14"/>
       <c r="E156" s="14"/>
       <c r="G156" s="1"/>
@@ -10384,7 +17010,7 @@
       <c r="AD156" s="8"/>
       <c r="AE156" s="9"/>
     </row>
-    <row r="157" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D157" s="14"/>
       <c r="E157" s="14"/>
       <c r="G157" s="1"/>
@@ -10410,7 +17036,7 @@
       <c r="AD157" s="8"/>
       <c r="AE157" s="9"/>
     </row>
-    <row r="158" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D158" s="14"/>
       <c r="E158" s="14"/>
       <c r="G158" s="1"/>
@@ -10436,7 +17062,7 @@
       <c r="AD158" s="8"/>
       <c r="AE158" s="9"/>
     </row>
-    <row r="159" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:31" x14ac:dyDescent="0.45">
       <c r="D159" s="14"/>
       <c r="E159" s="14"/>
       <c r="G159" s="1"/>
